--- a/data/trans_orig/P14A22-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A22-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABF1824E-2634-4DC0-A21D-69172E7F740D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E211674-2AD0-469F-8F57-4C665ED6C397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1F2B8084-738F-4428-B649-A719C8E96B7E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{742B01A1-5B94-44A4-A3F0-02EA24ADB3E7}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -105,13 +105,13 @@
     <t>74,99%</t>
   </si>
   <si>
-    <t>27,86%</t>
+    <t>27,74%</t>
   </si>
   <si>
     <t>25,01%</t>
   </si>
   <si>
-    <t>72,14%</t>
+    <t>72,26%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -126,13 +126,13 @@
     <t>84,03%</t>
   </si>
   <si>
-    <t>34,23%</t>
+    <t>33,1%</t>
   </si>
   <si>
     <t>79,22%</t>
   </si>
   <si>
-    <t>47,88%</t>
+    <t>39,4%</t>
   </si>
   <si>
     <t>28,09%</t>
@@ -144,13 +144,13 @@
     <t>15,97%</t>
   </si>
   <si>
-    <t>65,77%</t>
+    <t>66,9%</t>
   </si>
   <si>
     <t>20,78%</t>
   </si>
   <si>
-    <t>52,12%</t>
+    <t>60,6%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -174,7 +174,7 @@
     <t>89,04%</t>
   </si>
   <si>
-    <t>63,96%</t>
+    <t>67,25%</t>
   </si>
   <si>
     <t>88,43%</t>
@@ -186,16 +186,16 @@
     <t>88,73%</t>
   </si>
   <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
   </si>
   <si>
     <t>10,96%</t>
   </si>
   <si>
-    <t>36,04%</t>
+    <t>32,75%</t>
   </si>
   <si>
     <t>11,57%</t>
@@ -207,25 +207,25 @@
     <t>11,27%</t>
   </si>
   <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
   </si>
   <si>
     <t>81,32%</t>
   </si>
   <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
   </si>
   <si>
     <t>87,8%</t>
   </si>
   <si>
-    <t>67,04%</t>
+    <t>70,64%</t>
   </si>
   <si>
     <t>96,16%</t>
@@ -234,19 +234,19 @@
     <t>84,16%</t>
   </si>
   <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
   </si>
   <si>
     <t>18,68%</t>
   </si>
   <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
   </si>
   <si>
     <t>12,2%</t>
@@ -255,16 +255,16 @@
     <t>3,84%</t>
   </si>
   <si>
-    <t>32,96%</t>
+    <t>29,36%</t>
   </si>
   <si>
     <t>15,84%</t>
   </si>
   <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -306,91 +306,91 @@
     <t>83,68%</t>
   </si>
   <si>
-    <t>54,37%</t>
+    <t>54,73%</t>
   </si>
   <si>
     <t>85,58%</t>
   </si>
   <si>
-    <t>58,92%</t>
+    <t>55,87%</t>
   </si>
   <si>
     <t>84,81%</t>
   </si>
   <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
   </si>
   <si>
     <t>16,32%</t>
   </si>
   <si>
-    <t>45,63%</t>
+    <t>45,27%</t>
   </si>
   <si>
     <t>14,42%</t>
   </si>
   <si>
-    <t>41,08%</t>
+    <t>44,13%</t>
   </si>
   <si>
     <t>15,19%</t>
   </si>
   <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
   </si>
   <si>
     <t>87,12%</t>
   </si>
   <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
   </si>
   <si>
     <t>88,48%</t>
   </si>
   <si>
-    <t>62,62%</t>
+    <t>66,68%</t>
   </si>
   <si>
     <t>87,79%</t>
   </si>
   <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
+    <t>72,28%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
   </si>
   <si>
     <t>12,88%</t>
   </si>
   <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
   </si>
   <si>
     <t>11,52%</t>
   </si>
   <si>
-    <t>37,38%</t>
+    <t>33,32%</t>
   </si>
   <si>
     <t>12,21%</t>
   </si>
   <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
   </si>
 </sst>
 </file>
@@ -802,7 +802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96DD17AD-D188-4663-B1DF-195F03A06AF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC6AC48-4992-46AE-A57F-F1CE771C7726}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1991,7 +1991,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84AD2A49-E4AB-452E-B748-127A490AC8BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0064B724-5C07-4C95-854E-DD09478CAF5E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14A22-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A22-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E211674-2AD0-469F-8F57-4C665ED6C397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{649CCD07-1FF4-4A5B-993A-F694C738FE19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{742B01A1-5B94-44A4-A3F0-02EA24ADB3E7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6C3CCF9B-90EB-40FA-A012-F8596EC935C2}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="116">
   <si>
     <t>Población que recibe medicación o terapia por accidente cerebrovascular en 2012 (Tasa respuesta: 0,81%)</t>
   </si>
@@ -105,13 +105,13 @@
     <t>74,99%</t>
   </si>
   <si>
-    <t>27,74%</t>
+    <t>27,96%</t>
   </si>
   <si>
     <t>25,01%</t>
   </si>
   <si>
-    <t>72,26%</t>
+    <t>72,04%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -126,13 +126,13 @@
     <t>84,03%</t>
   </si>
   <si>
-    <t>33,1%</t>
+    <t>30,46%</t>
   </si>
   <si>
     <t>79,22%</t>
   </si>
   <si>
-    <t>39,4%</t>
+    <t>39,43%</t>
   </si>
   <si>
     <t>28,09%</t>
@@ -144,13 +144,13 @@
     <t>15,97%</t>
   </si>
   <si>
-    <t>66,9%</t>
+    <t>69,54%</t>
   </si>
   <si>
     <t>20,78%</t>
   </si>
   <si>
-    <t>60,6%</t>
+    <t>60,57%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -174,103 +174,97 @@
     <t>89,04%</t>
   </si>
   <si>
-    <t>67,25%</t>
+    <t>66,51%</t>
   </si>
   <si>
     <t>88,43%</t>
   </si>
   <si>
-    <t>61,85%</t>
+    <t>65,44%</t>
   </si>
   <si>
     <t>88,73%</t>
   </si>
   <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
   </si>
   <si>
     <t>10,96%</t>
   </si>
   <si>
-    <t>32,75%</t>
+    <t>33,49%</t>
   </si>
   <si>
     <t>11,57%</t>
   </si>
   <si>
-    <t>38,15%</t>
+    <t>34,56%</t>
   </si>
   <si>
     <t>11,27%</t>
   </si>
   <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
   </si>
   <si>
     <t>81,32%</t>
   </si>
   <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
   </si>
   <si>
     <t>87,8%</t>
   </si>
   <si>
-    <t>70,64%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
   </si>
   <si>
     <t>84,16%</t>
   </si>
   <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
+    <t>72,71%</t>
   </si>
   <si>
     <t>18,68%</t>
   </si>
   <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
   </si>
   <si>
     <t>12,2%</t>
   </si>
   <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
   </si>
   <si>
     <t>15,84%</t>
   </si>
   <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
+    <t>27,29%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por accidente cerebrovascular en 2015 (Tasa respuesta: 0,59%)</t>
+    <t>Población que recibe medicación o terapia por accidente cerebrovascular en 2016 (Tasa respuesta: 0,59%)</t>
   </si>
   <si>
     <t>51,35%</t>
@@ -306,91 +300,91 @@
     <t>83,68%</t>
   </si>
   <si>
-    <t>54,73%</t>
+    <t>52,34%</t>
   </si>
   <si>
     <t>85,58%</t>
   </si>
   <si>
-    <t>55,87%</t>
+    <t>53,04%</t>
   </si>
   <si>
     <t>84,81%</t>
   </si>
   <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
   </si>
   <si>
     <t>16,32%</t>
   </si>
   <si>
-    <t>45,27%</t>
+    <t>47,66%</t>
   </si>
   <si>
     <t>14,42%</t>
   </si>
   <si>
-    <t>44,13%</t>
+    <t>46,96%</t>
   </si>
   <si>
     <t>15,19%</t>
   </si>
   <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
   </si>
   <si>
     <t>87,12%</t>
   </si>
   <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
   </si>
   <si>
     <t>88,48%</t>
   </si>
   <si>
-    <t>66,68%</t>
+    <t>64,76%</t>
   </si>
   <si>
     <t>87,79%</t>
   </si>
   <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
   </si>
   <si>
     <t>12,88%</t>
   </si>
   <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
   </si>
   <si>
     <t>11,52%</t>
   </si>
   <si>
-    <t>33,32%</t>
+    <t>35,24%</t>
   </si>
   <si>
     <t>12,21%</t>
   </si>
   <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
   </si>
 </sst>
 </file>
@@ -802,7 +796,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC6AC48-4992-46AE-A57F-F1CE771C7726}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{076CC86D-12C1-44BE-AE8E-463D907FFF44}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1862,7 +1856,7 @@
         <v>65</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1877,13 +1871,13 @@
         <v>6085</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -1892,13 +1886,13 @@
         <v>3096</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M23" s="7">
         <v>9</v>
@@ -1907,13 +1901,13 @@
         <v>9180</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1969,7 +1963,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1991,7 +1985,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0064B724-5C07-4C95-854E-DD09478CAF5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08E2C0A-837E-4E1C-8C6D-D24B4D5FF8A5}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2008,7 +2002,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2401,7 +2395,7 @@
         <v>948</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>17</v>
@@ -2429,7 +2423,7 @@
         <v>948</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>17</v>
@@ -2450,7 +2444,7 @@
         <v>898</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>17</v>
@@ -2478,7 +2472,7 @@
         <v>898</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>17</v>
@@ -2553,7 +2547,7 @@
         <v>14</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>16</v>
@@ -2568,7 +2562,7 @@
         <v>14</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>16</v>
@@ -2583,7 +2577,7 @@
         <v>14</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>16</v>
@@ -2607,7 +2601,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2622,7 +2616,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -2637,7 +2631,7 @@
         <v>18</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2708,7 +2702,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>16</v>
@@ -2723,7 +2717,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>16</v>
@@ -2738,7 +2732,7 @@
         <v>14</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>16</v>
@@ -2762,7 +2756,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2777,7 +2771,7 @@
         <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -2792,7 +2786,7 @@
         <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2860,10 +2854,10 @@
         <v>9643</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>14</v>
@@ -2875,10 +2869,10 @@
         <v>14224</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>14</v>
@@ -2890,13 +2884,13 @@
         <v>23867</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2911,13 +2905,13 @@
         <v>1880</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -2926,13 +2920,13 @@
         <v>2396</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -2941,13 +2935,13 @@
         <v>4276</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3015,13 +3009,13 @@
         <v>18789</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="H22" s="7">
         <v>15</v>
@@ -3030,10 +3024,10 @@
         <v>18404</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>14</v>
@@ -3045,13 +3039,13 @@
         <v>37194</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3066,13 +3060,13 @@
         <v>2779</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -3081,13 +3075,13 @@
         <v>2396</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M23" s="7">
         <v>5</v>
@@ -3096,13 +3090,13 @@
         <v>5174</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3158,7 +3152,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
